--- a/resultats_der.xlsx
+++ b/resultats_der.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71486A16-C5E8-7048-909C-697F81A9350F}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF058797-1F10-DC44-B1E1-45DF086E9D76}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="der_t1_2511" sheetId="2" r:id="rId1"/>
     <sheet name="der_t2_0212" sheetId="3" r:id="rId2"/>
     <sheet name="der_t3_0912" sheetId="1" r:id="rId3"/>
     <sheet name="der_t4_1612" sheetId="4" r:id="rId4"/>
+    <sheet name="der_t5_2012" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="921">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -2727,6 +2728,81 @@
   </si>
   <si>
     <t>6 min 26 s</t>
+  </si>
+  <si>
+    <t>8 min 27 s</t>
+  </si>
+  <si>
+    <t>8 min 36 s</t>
+  </si>
+  <si>
+    <t>16 min 18 s</t>
+  </si>
+  <si>
+    <t>11 min 12 s</t>
+  </si>
+  <si>
+    <t>12 min 22 s</t>
+  </si>
+  <si>
+    <t>23 min 41 s</t>
+  </si>
+  <si>
+    <t>8 min 50 s</t>
+  </si>
+  <si>
+    <t>23 min 51 s</t>
+  </si>
+  <si>
+    <t>14 min 17 s</t>
+  </si>
+  <si>
+    <t>11 min 11 s</t>
+  </si>
+  <si>
+    <t>11 min 18 s</t>
+  </si>
+  <si>
+    <t>11 min 57 s</t>
+  </si>
+  <si>
+    <t>6 min 25 s</t>
+  </si>
+  <si>
+    <t>6 min 1 s</t>
+  </si>
+  <si>
+    <t>10 min 54 s</t>
+  </si>
+  <si>
+    <t>28 min 10 s</t>
+  </si>
+  <si>
+    <t>11 min 14 s</t>
+  </si>
+  <si>
+    <t>13 min 31 s</t>
+  </si>
+  <si>
+    <t>8 min 35 s</t>
+  </si>
+  <si>
+    <t>5 min 32 s</t>
+  </si>
+  <si>
+    <t>13 min 4 s</t>
+  </si>
+  <si>
+    <t>12 min 55 s</t>
+  </si>
+  <si>
+    <t>8 min 46 s</t>
+  </si>
+  <si>
+    <t>6 min 18 s</t>
+  </si>
+  <si>
+    <t>37 min 45 s</t>
   </si>
 </sst>
 </file>
@@ -2769,10 +2845,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17393,8 +17468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B28066B-4EAC-4847-90DF-988371D32F9E}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F63"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17460,7 +17535,7 @@
       <c r="E2" t="s">
         <v>811</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
@@ -17505,7 +17580,7 @@
       <c r="E3" t="s">
         <v>812</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>18</v>
       </c>
       <c r="G3" t="s">
@@ -17550,7 +17625,7 @@
       <c r="E4" t="s">
         <v>813</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>17</v>
       </c>
       <c r="G4" t="s">
@@ -17595,7 +17670,7 @@
       <c r="E5" t="s">
         <v>814</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>17</v>
       </c>
       <c r="G5" t="s">
@@ -17640,7 +17715,7 @@
       <c r="E6" t="s">
         <v>815</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>15.5</v>
       </c>
       <c r="G6" t="s">
@@ -17685,7 +17760,7 @@
       <c r="E7" t="s">
         <v>816</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>15.5</v>
       </c>
       <c r="G7" t="s">
@@ -17730,7 +17805,7 @@
       <c r="E8" t="s">
         <v>817</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>14.75</v>
       </c>
       <c r="G8" t="s">
@@ -17775,7 +17850,7 @@
       <c r="E9" t="s">
         <v>818</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>14.75</v>
       </c>
       <c r="G9" t="s">
@@ -17820,7 +17895,7 @@
       <c r="E10" t="s">
         <v>791</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>14</v>
       </c>
       <c r="G10" t="s">
@@ -17865,7 +17940,7 @@
       <c r="E11" t="s">
         <v>819</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>12.5</v>
       </c>
       <c r="G11" t="s">
@@ -17910,7 +17985,7 @@
       <c r="E12" t="s">
         <v>820</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>12.5</v>
       </c>
       <c r="G12" t="s">
@@ -17955,7 +18030,7 @@
       <c r="E13" t="s">
         <v>821</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>12.5</v>
       </c>
       <c r="G13" t="s">
@@ -18000,7 +18075,7 @@
       <c r="E14" t="s">
         <v>798</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>12.25</v>
       </c>
       <c r="G14" t="s">
@@ -18045,7 +18120,7 @@
       <c r="E15" t="s">
         <v>825</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>12.25</v>
       </c>
       <c r="G15" t="s">
@@ -18090,7 +18165,7 @@
       <c r="E16" t="s">
         <v>829</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>11.75</v>
       </c>
       <c r="G16" t="s">
@@ -18135,7 +18210,7 @@
       <c r="E17" t="s">
         <v>830</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>11.75</v>
       </c>
       <c r="G17" t="s">
@@ -18180,7 +18255,7 @@
       <c r="E18" t="s">
         <v>831</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>11.5</v>
       </c>
       <c r="G18" t="s">
@@ -18225,7 +18300,7 @@
       <c r="E19" t="s">
         <v>835</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>11.5</v>
       </c>
       <c r="G19" t="s">
@@ -18270,7 +18345,7 @@
       <c r="E20" t="s">
         <v>836</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>11</v>
       </c>
       <c r="G20" t="s">
@@ -18315,7 +18390,7 @@
       <c r="E21" t="s">
         <v>837</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
@@ -18360,7 +18435,7 @@
       <c r="E22" t="s">
         <v>838</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
@@ -18405,7 +18480,7 @@
       <c r="E23" t="s">
         <v>839</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
@@ -18450,7 +18525,7 @@
       <c r="E24" t="s">
         <v>840</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
@@ -18495,7 +18570,7 @@
       <c r="E25" t="s">
         <v>841</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>9.75</v>
       </c>
       <c r="G25" t="s">
@@ -18540,7 +18615,7 @@
       <c r="E26" t="s">
         <v>675</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>9.5</v>
       </c>
       <c r="G26" t="s">
@@ -18585,7 +18660,7 @@
       <c r="E27" t="s">
         <v>844</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>9.25</v>
       </c>
       <c r="G27" t="s">
@@ -18630,7 +18705,7 @@
       <c r="E28" t="s">
         <v>847</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>9.25</v>
       </c>
       <c r="G28" t="s">
@@ -18675,7 +18750,7 @@
       <c r="E29" t="s">
         <v>848</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>9.25</v>
       </c>
       <c r="G29" t="s">
@@ -18720,7 +18795,7 @@
       <c r="E30" t="s">
         <v>849</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>9.25</v>
       </c>
       <c r="G30" t="s">
@@ -18765,7 +18840,7 @@
       <c r="E31" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>9.25</v>
       </c>
       <c r="G31" t="s">
@@ -18810,7 +18885,7 @@
       <c r="E32" t="s">
         <v>851</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>8.75</v>
       </c>
       <c r="G32" t="s">
@@ -18855,7 +18930,7 @@
       <c r="E33" t="s">
         <v>852</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>8.5</v>
       </c>
       <c r="G33" t="s">
@@ -18900,7 +18975,7 @@
       <c r="E34" t="s">
         <v>853</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>8</v>
       </c>
       <c r="G34" t="s">
@@ -18945,7 +19020,7 @@
       <c r="E35" t="s">
         <v>672</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" t="s">
@@ -18990,7 +19065,7 @@
       <c r="E36" t="s">
         <v>857</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>8</v>
       </c>
       <c r="G36" t="s">
@@ -19035,7 +19110,7 @@
       <c r="E37" t="s">
         <v>858</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>7.5</v>
       </c>
       <c r="G37" t="s">
@@ -19080,7 +19155,7 @@
       <c r="E38" t="s">
         <v>859</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>7.25</v>
       </c>
       <c r="G38" t="s">
@@ -19125,7 +19200,7 @@
       <c r="E39" t="s">
         <v>860</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>7.25</v>
       </c>
       <c r="G39" t="s">
@@ -19170,7 +19245,7 @@
       <c r="E40" t="s">
         <v>861</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>7</v>
       </c>
       <c r="G40" t="s">
@@ -19215,7 +19290,7 @@
       <c r="E41" t="s">
         <v>862</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>7</v>
       </c>
       <c r="G41" t="s">
@@ -19260,7 +19335,7 @@
       <c r="E42" t="s">
         <v>866</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>6.75</v>
       </c>
       <c r="G42" t="s">
@@ -19305,7 +19380,7 @@
       <c r="E43" t="s">
         <v>867</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>6.5</v>
       </c>
       <c r="G43" t="s">
@@ -19350,7 +19425,7 @@
       <c r="E44" t="s">
         <v>868</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>6.5</v>
       </c>
       <c r="G44" t="s">
@@ -19395,7 +19470,7 @@
       <c r="E45" t="s">
         <v>871</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>6.5</v>
       </c>
       <c r="G45" t="s">
@@ -19440,7 +19515,7 @@
       <c r="E46" t="s">
         <v>875</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>6.25</v>
       </c>
       <c r="G46" t="s">
@@ -19485,7 +19560,7 @@
       <c r="E47" t="s">
         <v>876</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
@@ -19530,7 +19605,7 @@
       <c r="E48" t="s">
         <v>880</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
@@ -19575,7 +19650,7 @@
       <c r="E49" t="s">
         <v>881</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
@@ -19620,7 +19695,7 @@
       <c r="E50" t="s">
         <v>866</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>5</v>
       </c>
       <c r="G50" t="s">
@@ -19665,7 +19740,7 @@
       <c r="E51" t="s">
         <v>803</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" t="s">
@@ -19710,7 +19785,7 @@
       <c r="E52" t="s">
         <v>882</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
@@ -19755,7 +19830,7 @@
       <c r="E53" t="s">
         <v>883</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>5</v>
       </c>
       <c r="G53" t="s">
@@ -19800,7 +19875,7 @@
       <c r="E54" t="s">
         <v>884</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <v>4.25</v>
       </c>
       <c r="G54" t="s">
@@ -19845,7 +19920,7 @@
       <c r="E55" t="s">
         <v>885</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>4.25</v>
       </c>
       <c r="G55" t="s">
@@ -19890,7 +19965,7 @@
       <c r="E56" t="s">
         <v>886</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>3</v>
       </c>
       <c r="G56" t="s">
@@ -19935,7 +20010,7 @@
       <c r="E57" t="s">
         <v>887</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="s">
@@ -19980,7 +20055,7 @@
       <c r="E58" t="s">
         <v>798</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
@@ -20025,7 +20100,7 @@
       <c r="E59" t="s">
         <v>888</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
@@ -20070,7 +20145,7 @@
       <c r="E60" t="s">
         <v>889</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
@@ -20115,7 +20190,7 @@
       <c r="E61" t="s">
         <v>890</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>14.5</v>
       </c>
       <c r="G61" t="s">
@@ -20160,7 +20235,7 @@
       <c r="E62" t="s">
         <v>891</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <v>8.75</v>
       </c>
       <c r="G62" t="s">
@@ -20205,7 +20280,7 @@
       <c r="E63" t="s">
         <v>895</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <v>7</v>
       </c>
       <c r="G63" t="s">
@@ -20231,6 +20306,1280 @@
       </c>
       <c r="N63" t="s">
         <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5C86A-E39C-9743-81FB-655593647FBB}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>NEVEUXEleonore</v>
+      </c>
+      <c r="D2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F2">
+        <v>9.5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.25</v>
+      </c>
+      <c r="J2">
+        <v>2.25</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C26" si="0">A3&amp;B3</f>
+        <v>SAMPERSLucile</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>897</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2.25</v>
+      </c>
+      <c r="J3">
+        <v>2.25</v>
+      </c>
+      <c r="K3">
+        <v>2.5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>CARETTEHugo</v>
+      </c>
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" t="s">
+        <v>898</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>NOLLET-PROISYLaurelenn</v>
+      </c>
+      <c r="D5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" t="s">
+        <v>899</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>PELARDBerenice</v>
+      </c>
+      <c r="D6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" t="s">
+        <v>900</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2.25</v>
+      </c>
+      <c r="J6">
+        <v>2.25</v>
+      </c>
+      <c r="K6">
+        <v>2.5</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>KIHLJeanne</v>
+      </c>
+      <c r="D7" t="s">
+        <v>843</v>
+      </c>
+      <c r="E7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>PLATEAUCorentin</v>
+      </c>
+      <c r="D8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E8" t="s">
+        <v>902</v>
+      </c>
+      <c r="F8">
+        <v>10.5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>HARIR-FOROUCHAugustin</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>903</v>
+      </c>
+      <c r="F9">
+        <v>11.75</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2.25</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>PETITPaul</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>673</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2.25</v>
+      </c>
+      <c r="J10">
+        <v>2.25</v>
+      </c>
+      <c r="K10">
+        <v>2.5</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>LEROUXPaul</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" t="s">
+        <v>904</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>SENEZCeleste</v>
+      </c>
+      <c r="D12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E12" t="s">
+        <v>905</v>
+      </c>
+      <c r="F12">
+        <v>12.5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2.5</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>ARNOULTEsteban</v>
+      </c>
+      <c r="D13" t="s">
+        <v>671</v>
+      </c>
+      <c r="E13" t="s">
+        <v>906</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>MONETAlizee</v>
+      </c>
+      <c r="D14" t="s">
+        <v>772</v>
+      </c>
+      <c r="E14" t="s">
+        <v>907</v>
+      </c>
+      <c r="F14">
+        <v>14.75</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2.25</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2.5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>697</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>GAY-BOISSIER-DESCOMBESAnoa</v>
+      </c>
+      <c r="D15" t="s">
+        <v>699</v>
+      </c>
+      <c r="E15" t="s">
+        <v>908</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D16" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" t="s">
+        <v>909</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>HARDYLouis</v>
+      </c>
+      <c r="D17" t="s">
+        <v>870</v>
+      </c>
+      <c r="E17" t="s">
+        <v>910</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>872</v>
+      </c>
+      <c r="B18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>GANGNITOCassandre</v>
+      </c>
+      <c r="D18" t="s">
+        <v>874</v>
+      </c>
+      <c r="E18" t="s">
+        <v>911</v>
+      </c>
+      <c r="F18">
+        <v>12.25</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2.25</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>TROLLERemi</v>
+      </c>
+      <c r="D19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" t="s">
+        <v>912</v>
+      </c>
+      <c r="F19">
+        <v>7.5</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2.5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" t="s">
+        <v>619</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>VINCANTManon</v>
+      </c>
+      <c r="D20" t="s">
+        <v>620</v>
+      </c>
+      <c r="E20" t="s">
+        <v>913</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>GUITTARDClementine</v>
+      </c>
+      <c r="D21" t="s">
+        <v>646</v>
+      </c>
+      <c r="E21" t="s">
+        <v>914</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" t="s">
+        <v>915</v>
+      </c>
+      <c r="F22">
+        <v>10.25</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2.25</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B23" t="s">
+        <v>582</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>BOEHLEREnzo</v>
+      </c>
+      <c r="D23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E23" t="s">
+        <v>916</v>
+      </c>
+      <c r="F23">
+        <v>7.25</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2.25</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>576</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>BERTEAUThomas</v>
+      </c>
+      <c r="D24" t="s">
+        <v>577</v>
+      </c>
+      <c r="E24" t="s">
+        <v>917</v>
+      </c>
+      <c r="F24">
+        <v>7.5</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2.5</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>GENTIENFlavie</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" t="s">
+        <v>883</v>
+      </c>
+      <c r="F25">
+        <v>14.75</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.25</v>
+      </c>
+      <c r="K25">
+        <v>2.5</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26" t="s">
+        <v>609</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>OLIVIERCamille</v>
+      </c>
+      <c r="D26" t="s">
+        <v>776</v>
+      </c>
+      <c r="E26" t="s">
+        <v>918</v>
+      </c>
+      <c r="F26">
+        <v>4.5</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2.25</v>
+      </c>
+      <c r="J26">
+        <v>2.25</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>892</v>
+      </c>
+      <c r="B27" t="s">
+        <v>893</v>
+      </c>
+      <c r="C27" t="str">
+        <f>A27&amp;B27</f>
+        <v>MENASSACybele</v>
+      </c>
+      <c r="D27" t="s">
+        <v>894</v>
+      </c>
+      <c r="E27" t="s">
+        <v>919</v>
+      </c>
+      <c r="F27">
+        <v>9.25</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2.25</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="str">
+        <f>A28&amp;B28</f>
+        <v>IMBAULTLouis</v>
+      </c>
+      <c r="D28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" t="s">
+        <v>920</v>
+      </c>
+      <c r="F28">
+        <v>8.75</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2.25</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2.5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resultats_der.xlsx
+++ b/resultats_der.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF058797-1F10-DC44-B1E1-45DF086E9D76}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_F25DC773A252ABDACC10480B01585D1A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E537B8B-50E6-471D-AE90-985603E895C2}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1548" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="der_t1_2511" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="der_t3_0912" sheetId="1" r:id="rId3"/>
     <sheet name="der_t4_1612" sheetId="4" r:id="rId4"/>
     <sheet name="der_t5_2012" sheetId="5" r:id="rId5"/>
+    <sheet name="der_t6_0601" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="965">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -2803,13 +2804,145 @@
   </si>
   <si>
     <t>37 min 45 s</t>
+  </si>
+  <si>
+    <t>13 min 20 s</t>
+  </si>
+  <si>
+    <t>10 min 21 s</t>
+  </si>
+  <si>
+    <t>5 min 44 s</t>
+  </si>
+  <si>
+    <t>7 min 5 s</t>
+  </si>
+  <si>
+    <t>5 min 47 s</t>
+  </si>
+  <si>
+    <t>VITTA</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>brad.vitta@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>6 min 8 s</t>
+  </si>
+  <si>
+    <t>18 min 16 s</t>
+  </si>
+  <si>
+    <t>16 min 1 s</t>
+  </si>
+  <si>
+    <t>MENARD</t>
+  </si>
+  <si>
+    <t>maxime.menard@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 1 s</t>
+  </si>
+  <si>
+    <t>22 min 9 s</t>
+  </si>
+  <si>
+    <t>NOYERE</t>
+  </si>
+  <si>
+    <t>camille.noyere@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>39 min</t>
+  </si>
+  <si>
+    <t>7 min 52 s</t>
+  </si>
+  <si>
+    <t>11 min 52 s</t>
+  </si>
+  <si>
+    <t>10 min 37 s</t>
+  </si>
+  <si>
+    <t>1 min 23 s</t>
+  </si>
+  <si>
+    <t>15 min 48 s</t>
+  </si>
+  <si>
+    <t>5 min 10 s</t>
+  </si>
+  <si>
+    <t>15 min 41 s</t>
+  </si>
+  <si>
+    <t>20 min 40 s</t>
+  </si>
+  <si>
+    <t>ERIPRET</t>
+  </si>
+  <si>
+    <t>paul.eripret@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>8 min 15 s</t>
+  </si>
+  <si>
+    <t>MOUSNIER</t>
+  </si>
+  <si>
+    <t>Ambre</t>
+  </si>
+  <si>
+    <t>ambre.mousnier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>10 min 25 s</t>
+  </si>
+  <si>
+    <t>8 min 39 s</t>
+  </si>
+  <si>
+    <t>3 min 41 s</t>
+  </si>
+  <si>
+    <t>7 min 41 s</t>
+  </si>
+  <si>
+    <t>13 min 53 s</t>
+  </si>
+  <si>
+    <t>14 min 36 s</t>
+  </si>
+  <si>
+    <t>9 min 52 s</t>
+  </si>
+  <si>
+    <t>9 min 57 s</t>
+  </si>
+  <si>
+    <t>12 min 26 s</t>
+  </si>
+  <si>
+    <t>17 min 9 s</t>
+  </si>
+  <si>
+    <t>16 min 22 s</t>
+  </si>
+  <si>
+    <t>31 min 30 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2822,6 +2955,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2841,17 +2979,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F4EEB4EE-24CE-458F-A42B-FBC51FDE9B0F}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{96A6207E-4C13-4575-B95C-625A63B3198F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3138,15 +3279,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3229,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3271,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3313,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3355,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3397,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3439,7 +3580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3481,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3523,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3565,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3607,7 +3748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -3649,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3691,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3733,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3775,7 +3916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3817,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3859,7 +4000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3901,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -3943,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -3985,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -4027,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4069,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -4111,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -4153,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -4195,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -4237,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -4279,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -4321,7 +4462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -4363,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -4405,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -4447,7 +4588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -4489,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -4531,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4573,7 +4714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -4615,7 +4756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -4657,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -4699,7 +4840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4741,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4783,7 +4924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -4825,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -4867,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -4909,7 +5050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -4951,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -4993,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -5035,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -5077,7 +5218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -5119,7 +5260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -5161,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -5203,7 +5344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -5245,7 +5386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -5287,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -5329,7 +5470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -5371,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -5413,7 +5554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5455,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -5497,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -5539,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>177</v>
       </c>
@@ -5581,7 +5722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -5623,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -5665,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5707,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -5749,7 +5890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -5791,7 +5932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -5833,7 +5974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -5875,7 +6016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -5917,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -5959,7 +6100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -6001,7 +6142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -6043,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -6085,7 +6226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -6127,7 +6268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -6169,7 +6310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -6211,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -6253,7 +6394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>222</v>
       </c>
@@ -6295,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -6337,7 +6478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -6379,7 +6520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -6421,7 +6562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>232</v>
       </c>
@@ -6463,7 +6604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>235</v>
       </c>
@@ -6505,7 +6646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -6547,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -6589,7 +6730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -6631,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -6673,7 +6814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -6715,7 +6856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>251</v>
       </c>
@@ -6757,7 +6898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>254</v>
       </c>
@@ -6799,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -6841,7 +6982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>260</v>
       </c>
@@ -6883,7 +7024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>263</v>
       </c>
@@ -6925,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>265</v>
       </c>
@@ -6967,7 +7108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>268</v>
       </c>
@@ -7009,7 +7150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>271</v>
       </c>
@@ -7051,7 +7192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -7093,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -7135,7 +7276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>278</v>
       </c>
@@ -7177,7 +7318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>280</v>
       </c>
@@ -7219,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>283</v>
       </c>
@@ -7261,7 +7402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -7303,7 +7444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>289</v>
       </c>
@@ -7361,9 +7502,9 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7404,7 +7545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -7446,7 +7587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -7488,7 +7629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -7530,7 +7671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>301</v>
       </c>
@@ -7572,7 +7713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -7614,7 +7755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -7656,7 +7797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>309</v>
       </c>
@@ -7698,7 +7839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -7740,7 +7881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -7782,7 +7923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>317</v>
       </c>
@@ -7824,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -7866,7 +8007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>323</v>
       </c>
@@ -7908,7 +8049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -7950,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>254</v>
       </c>
@@ -7992,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>326</v>
       </c>
@@ -8034,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -8076,7 +8217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -8118,7 +8259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -8160,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>335</v>
       </c>
@@ -8202,7 +8343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>338</v>
       </c>
@@ -8244,7 +8385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -8286,7 +8427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>340</v>
       </c>
@@ -8328,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>342</v>
       </c>
@@ -8370,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -8412,7 +8553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>345</v>
       </c>
@@ -8454,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -8496,7 +8637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>348</v>
       </c>
@@ -8538,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>350</v>
       </c>
@@ -8580,7 +8721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -8622,7 +8763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>355</v>
       </c>
@@ -8664,7 +8805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>358</v>
       </c>
@@ -8706,7 +8847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>361</v>
       </c>
@@ -8748,7 +8889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -8790,7 +8931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>367</v>
       </c>
@@ -8832,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>369</v>
       </c>
@@ -8874,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>372</v>
       </c>
@@ -8916,7 +9057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>375</v>
       </c>
@@ -8958,7 +9099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>377</v>
       </c>
@@ -9000,7 +9141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -9042,7 +9183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>379</v>
       </c>
@@ -9084,7 +9225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>382</v>
       </c>
@@ -9126,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>385</v>
       </c>
@@ -9168,7 +9309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>387</v>
       </c>
@@ -9210,7 +9351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -9252,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>389</v>
       </c>
@@ -9294,7 +9435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>391</v>
       </c>
@@ -9336,7 +9477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>393</v>
       </c>
@@ -9378,7 +9519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -9420,7 +9561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>398</v>
       </c>
@@ -9462,7 +9603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>401</v>
       </c>
@@ -9504,7 +9645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>403</v>
       </c>
@@ -9546,7 +9687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>406</v>
       </c>
@@ -9588,7 +9729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>382</v>
       </c>
@@ -9630,7 +9771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -9672,7 +9813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -9714,7 +9855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>413</v>
       </c>
@@ -9756,7 +9897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>415</v>
       </c>
@@ -9798,7 +9939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>417</v>
       </c>
@@ -9840,7 +9981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -9882,7 +10023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -9924,7 +10065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>271</v>
       </c>
@@ -9966,7 +10107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>422</v>
       </c>
@@ -10008,7 +10149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>424</v>
       </c>
@@ -10050,7 +10191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>427</v>
       </c>
@@ -10092,7 +10233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>429</v>
       </c>
@@ -10134,7 +10275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>432</v>
       </c>
@@ -10176,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>435</v>
       </c>
@@ -10218,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>438</v>
       </c>
@@ -10260,7 +10401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -10302,7 +10443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>440</v>
       </c>
@@ -10344,7 +10485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>443</v>
       </c>
@@ -10386,7 +10527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>445</v>
       </c>
@@ -10428,7 +10569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>447</v>
       </c>
@@ -10470,7 +10611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>450</v>
       </c>
@@ -10512,7 +10653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>453</v>
       </c>
@@ -10554,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>456</v>
       </c>
@@ -10596,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>204</v>
       </c>
@@ -10638,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>459</v>
       </c>
@@ -10680,7 +10821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>462</v>
       </c>
@@ -10722,7 +10863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>465</v>
       </c>
@@ -10764,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -10806,7 +10947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>469</v>
       </c>
@@ -10848,7 +10989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>472</v>
       </c>
@@ -10890,7 +11031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>475</v>
       </c>
@@ -10932,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>249</v>
       </c>
@@ -10974,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>477</v>
       </c>
@@ -11016,7 +11157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>479</v>
       </c>
@@ -11058,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>482</v>
       </c>
@@ -11100,7 +11241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>484</v>
       </c>
@@ -11142,7 +11283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>486</v>
       </c>
@@ -11184,7 +11325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>489</v>
       </c>
@@ -11226,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>491</v>
       </c>
@@ -11268,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>493</v>
       </c>
@@ -11310,7 +11451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>496</v>
       </c>
@@ -11352,7 +11493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>499</v>
       </c>
@@ -11394,7 +11535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>501</v>
       </c>
@@ -11436,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -11478,7 +11619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>505</v>
       </c>
@@ -11520,7 +11661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>507</v>
       </c>
@@ -11562,7 +11703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>509</v>
       </c>
@@ -11604,7 +11745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>512</v>
       </c>
@@ -11646,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>515</v>
       </c>
@@ -11688,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>518</v>
       </c>
@@ -11730,7 +11871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>260</v>
       </c>
@@ -11772,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>520</v>
       </c>
@@ -11814,7 +11955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>523</v>
       </c>
@@ -11856,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>526</v>
       </c>
@@ -11898,7 +12039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>240</v>
       </c>
@@ -11940,7 +12081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>529</v>
       </c>
@@ -11982,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>532</v>
       </c>
@@ -12024,7 +12165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>535</v>
       </c>
@@ -12066,7 +12207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -12108,7 +12249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>537</v>
       </c>
@@ -12150,7 +12291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>540</v>
       </c>
@@ -12192,7 +12333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>543</v>
       </c>
@@ -12234,7 +12375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>546</v>
       </c>
@@ -12276,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>548</v>
       </c>
@@ -12318,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>550</v>
       </c>
@@ -12360,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>552</v>
       </c>
@@ -12402,7 +12543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>554</v>
       </c>
@@ -12444,7 +12585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>557</v>
       </c>
@@ -12486,7 +12627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>550</v>
       </c>
@@ -12528,7 +12669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>562</v>
       </c>
@@ -12570,7 +12711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>564</v>
       </c>
@@ -12612,7 +12753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>566</v>
       </c>
@@ -12654,7 +12795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>569</v>
       </c>
@@ -12696,7 +12837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>571</v>
       </c>
@@ -12738,7 +12879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>573</v>
       </c>
@@ -12780,7 +12921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>576</v>
       </c>
@@ -12822,7 +12963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>578</v>
       </c>
@@ -12864,7 +13005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -12906,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -12948,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>289</v>
       </c>
@@ -13003,9 +13144,9 @@
       <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13049,7 +13190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>581</v>
       </c>
@@ -13094,7 +13235,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>588</v>
       </c>
@@ -13139,7 +13280,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>591</v>
       </c>
@@ -13184,7 +13325,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -13229,7 +13370,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>450</v>
       </c>
@@ -13274,7 +13415,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>353</v>
       </c>
@@ -13319,7 +13460,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>599</v>
       </c>
@@ -13364,7 +13505,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -13409,7 +13550,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>603</v>
       </c>
@@ -13454,7 +13595,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>546</v>
       </c>
@@ -13499,7 +13640,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>608</v>
       </c>
@@ -13544,7 +13685,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>472</v>
       </c>
@@ -13589,7 +13730,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>338</v>
       </c>
@@ -13634,7 +13775,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>614</v>
       </c>
@@ -13679,7 +13820,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -13724,7 +13865,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>618</v>
       </c>
@@ -13769,7 +13910,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>622</v>
       </c>
@@ -13814,7 +13955,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>301</v>
       </c>
@@ -13859,7 +14000,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>627</v>
       </c>
@@ -13904,7 +14045,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>631</v>
       </c>
@@ -13949,7 +14090,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>634</v>
       </c>
@@ -13994,7 +14135,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>554</v>
       </c>
@@ -14039,7 +14180,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>639</v>
       </c>
@@ -14084,7 +14225,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>342</v>
       </c>
@@ -14129,7 +14270,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>413</v>
       </c>
@@ -14174,7 +14315,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>644</v>
       </c>
@@ -14219,7 +14360,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>648</v>
       </c>
@@ -14264,7 +14405,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>652</v>
       </c>
@@ -14309,7 +14450,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>576</v>
       </c>
@@ -14354,7 +14495,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>489</v>
       </c>
@@ -14399,7 +14540,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>658</v>
       </c>
@@ -14444,7 +14585,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>429</v>
       </c>
@@ -14489,7 +14630,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>662</v>
       </c>
@@ -14534,7 +14675,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>665</v>
       </c>
@@ -14579,7 +14720,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>314</v>
       </c>
@@ -14624,7 +14765,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>669</v>
       </c>
@@ -14669,7 +14810,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>410</v>
       </c>
@@ -14714,7 +14855,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
@@ -14759,7 +14900,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>550</v>
       </c>
@@ -14804,7 +14945,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>676</v>
       </c>
@@ -14849,7 +14990,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>323</v>
       </c>
@@ -14894,7 +15035,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>681</v>
       </c>
@@ -14939,7 +15080,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>685</v>
       </c>
@@ -14984,7 +15125,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>372</v>
       </c>
@@ -15029,7 +15170,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>364</v>
       </c>
@@ -15074,7 +15215,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>260</v>
       </c>
@@ -15119,7 +15260,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>456</v>
       </c>
@@ -15164,7 +15305,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -15209,7 +15350,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>697</v>
       </c>
@@ -15254,7 +15395,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>435</v>
       </c>
@@ -15299,7 +15440,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>702</v>
       </c>
@@ -15344,7 +15485,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>387</v>
       </c>
@@ -15389,7 +15530,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>707</v>
       </c>
@@ -15434,7 +15575,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>389</v>
       </c>
@@ -15479,7 +15620,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>512</v>
       </c>
@@ -15524,7 +15665,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>713</v>
       </c>
@@ -15569,7 +15710,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>717</v>
       </c>
@@ -15614,7 +15755,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>720</v>
       </c>
@@ -15659,7 +15800,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>204</v>
       </c>
@@ -15704,7 +15845,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>564</v>
       </c>
@@ -15749,7 +15890,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>340</v>
       </c>
@@ -15794,7 +15935,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>491</v>
       </c>
@@ -15839,7 +15980,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>295</v>
       </c>
@@ -15884,7 +16025,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>728</v>
       </c>
@@ -15929,7 +16070,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>731</v>
       </c>
@@ -15974,7 +16115,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>734</v>
       </c>
@@ -16019,7 +16160,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>738</v>
       </c>
@@ -16064,7 +16205,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>742</v>
       </c>
@@ -16109,7 +16250,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>745</v>
       </c>
@@ -16154,7 +16295,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>540</v>
       </c>
@@ -16199,7 +16340,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>237</v>
       </c>
@@ -16244,7 +16385,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>432</v>
       </c>
@@ -16289,7 +16430,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>532</v>
       </c>
@@ -16334,7 +16475,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>523</v>
       </c>
@@ -16379,7 +16520,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>393</v>
       </c>
@@ -16424,7 +16565,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>263</v>
       </c>
@@ -16469,7 +16610,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>758</v>
       </c>
@@ -16514,7 +16655,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>367</v>
       </c>
@@ -16559,7 +16700,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>763</v>
       </c>
@@ -16604,7 +16745,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>766</v>
       </c>
@@ -16649,7 +16790,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>770</v>
       </c>
@@ -16694,7 +16835,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>330</v>
       </c>
@@ -16739,7 +16880,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>775</v>
       </c>
@@ -16784,7 +16925,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
@@ -16829,7 +16970,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>427</v>
       </c>
@@ -16874,7 +17015,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>780</v>
       </c>
@@ -16919,7 +17060,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>783</v>
       </c>
@@ -16964,7 +17105,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>787</v>
       </c>
@@ -17009,7 +17150,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>515</v>
       </c>
@@ -17054,7 +17195,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>792</v>
       </c>
@@ -17099,7 +17240,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>298</v>
       </c>
@@ -17144,7 +17285,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>795</v>
       </c>
@@ -17189,7 +17330,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>799</v>
       </c>
@@ -17234,7 +17375,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -17279,7 +17420,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>493</v>
       </c>
@@ -17324,7 +17465,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>278</v>
       </c>
@@ -17369,7 +17510,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>273</v>
       </c>
@@ -17414,7 +17555,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>807</v>
       </c>
@@ -17472,9 +17613,9 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17518,7 +17659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>453</v>
       </c>
@@ -17563,7 +17704,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>523</v>
       </c>
@@ -17608,7 +17749,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -17653,7 +17794,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>550</v>
       </c>
@@ -17698,7 +17839,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>367</v>
       </c>
@@ -17743,7 +17884,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>766</v>
       </c>
@@ -17788,7 +17929,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -17833,7 +17974,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>783</v>
       </c>
@@ -17878,7 +18019,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -17923,7 +18064,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>591</v>
       </c>
@@ -17968,7 +18109,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>532</v>
       </c>
@@ -18013,7 +18154,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>387</v>
       </c>
@@ -18058,7 +18199,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>822</v>
       </c>
@@ -18103,7 +18244,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>742</v>
       </c>
@@ -18148,7 +18289,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>826</v>
       </c>
@@ -18193,7 +18334,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>681</v>
       </c>
@@ -18238,7 +18379,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>780</v>
       </c>
@@ -18283,7 +18424,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>832</v>
       </c>
@@ -18328,7 +18469,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>263</v>
       </c>
@@ -18373,7 +18514,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -18418,7 +18559,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>648</v>
       </c>
@@ -18463,7 +18604,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -18508,7 +18649,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>676</v>
       </c>
@@ -18553,7 +18694,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -18598,7 +18739,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -18643,7 +18784,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>842</v>
       </c>
@@ -18688,7 +18829,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>845</v>
       </c>
@@ -18733,7 +18874,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>770</v>
       </c>
@@ -18778,7 +18919,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>581</v>
       </c>
@@ -18823,7 +18964,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>627</v>
       </c>
@@ -18868,7 +19009,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>775</v>
       </c>
@@ -18913,7 +19054,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>493</v>
       </c>
@@ -18958,7 +19099,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>491</v>
       </c>
@@ -19003,7 +19144,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>432</v>
       </c>
@@ -19048,7 +19189,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>854</v>
       </c>
@@ -19093,7 +19234,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>634</v>
       </c>
@@ -19138,7 +19279,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -19183,7 +19324,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>326</v>
       </c>
@@ -19228,7 +19369,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>479</v>
       </c>
@@ -19273,7 +19414,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>576</v>
       </c>
@@ -19318,7 +19459,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>863</v>
       </c>
@@ -19363,7 +19504,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>639</v>
       </c>
@@ -19408,7 +19549,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>512</v>
       </c>
@@ -19453,7 +19594,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>869</v>
       </c>
@@ -19498,7 +19639,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>872</v>
       </c>
@@ -19543,7 +19684,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>588</v>
       </c>
@@ -19588,7 +19729,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>877</v>
       </c>
@@ -19633,7 +19774,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>758</v>
       </c>
@@ -19678,7 +19819,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -19723,7 +19864,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>540</v>
       </c>
@@ -19768,7 +19909,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>548</v>
       </c>
@@ -19813,7 +19954,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>728</v>
       </c>
@@ -19858,7 +19999,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>763</v>
       </c>
@@ -19903,7 +20044,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>435</v>
       </c>
@@ -19948,7 +20089,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>644</v>
       </c>
@@ -19993,7 +20134,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>618</v>
       </c>
@@ -20038,7 +20179,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>631</v>
       </c>
@@ -20083,7 +20224,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>745</v>
       </c>
@@ -20128,7 +20269,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>350</v>
       </c>
@@ -20173,7 +20314,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>273</v>
       </c>
@@ -20218,7 +20359,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>278</v>
       </c>
@@ -20263,7 +20404,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>892</v>
       </c>
@@ -20317,13 +20458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5C86A-E39C-9743-81FB-655593647FBB}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20367,7 +20508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>758</v>
       </c>
@@ -20412,7 +20553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>237</v>
       </c>
@@ -20457,7 +20598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>588</v>
       </c>
@@ -20502,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>450</v>
       </c>
@@ -20547,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>627</v>
       </c>
@@ -20592,7 +20733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>842</v>
       </c>
@@ -20637,7 +20778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>728</v>
       </c>
@@ -20682,7 +20823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>326</v>
       </c>
@@ -20727,7 +20868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -20772,7 +20913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>340</v>
       </c>
@@ -20817,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>854</v>
       </c>
@@ -20862,7 +21003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>669</v>
       </c>
@@ -20907,7 +21048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>770</v>
       </c>
@@ -20952,7 +21093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>697</v>
       </c>
@@ -20997,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>491</v>
       </c>
@@ -21042,7 +21183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>869</v>
       </c>
@@ -21087,7 +21228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>872</v>
       </c>
@@ -21132,7 +21273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>424</v>
       </c>
@@ -21177,7 +21318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>618</v>
       </c>
@@ -21222,7 +21363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>644</v>
       </c>
@@ -21267,7 +21408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>548</v>
       </c>
@@ -21312,7 +21453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>581</v>
       </c>
@@ -21357,7 +21498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>576</v>
       </c>
@@ -21402,7 +21543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -21447,7 +21588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>775</v>
       </c>
@@ -21492,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>892</v>
       </c>
@@ -21537,7 +21678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -21579,6 +21720,1820 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB12210-AF80-47B8-996B-9C88E96FC92E}">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>A2&amp;B2</f>
+        <v>BOEHLEREnzo</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F2" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C40" si="0">A3&amp;B3</f>
+        <v>HUBERTRonan</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NEVEUXEleonore</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOISSebastien</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GUITTARDClementine</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CARETTEHugo</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DUPRELilou</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LEROUXPaul</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VITTABrad</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VANDERMERSCHMaxence</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KIHLJeanne</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MENARDMaxime</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12.25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GROBELNYPierre</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NOYERECamille</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="F15" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LAMESCHCharles-Antoine</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MAYOTLenna</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DE FAUTEREAU-VASSELLuc</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VANBERTENLeo</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F19" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GAY-BOISSIER-DESCOMBESAnoa</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VECTENAuguste</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LECOINTEEnzo</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>3</v>
+      </c>
+      <c r="N23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VINCANTManon</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DEBOUDTAubin</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ERIPRETPaul</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BERTEAUThomas</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F27" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NOLLET-PROISYLaurelenn</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>3</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MOUSNIERAmbre</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F29" s="2">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CATHEAUAgathe</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVELOJAONAArthur</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LANGLAISAlexis</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OLIVIERCamille</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TROLLERemi</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ARNOULTEsteban</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMAINDiane</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LETELLIERClara</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MENASSACybele</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MONCOURTOISRaphael</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>IMBAULTLouis</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
         <v>0</v>
       </c>
     </row>
